--- a/Original_files/Payments.xlsx
+++ b/Original_files/Payments.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinemet\Ironhack\Projects\Project6\Original_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0581CA07-32C6-4767-802D-01AD8F83BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5499E84-7B5F-4CDF-B682-4EC839D5FFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -786,15 +789,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="28.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3983,7 +3994,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{49BEC528-715E-407F-9CD6-29AC1D24C52D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>